--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43013,6 +43013,41 @@
         <v>2312700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>435600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43048,6 +43048,41 @@
         <v>435600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>220100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43083,6 +43083,41 @@
         <v>220100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>598200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43118,6 +43118,41 @@
         <v>598200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>266400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43153,6 +43153,41 @@
         <v>266400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>454900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43188,6 +43188,41 @@
         <v>454900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>345700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43223,6 +43223,41 @@
         <v>345700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>313500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43258,6 +43258,41 @@
         <v>313500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>119200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43293,6 +43293,41 @@
         <v>119200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>267300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,41 @@
         <v>267300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>579700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43363,6 +43363,41 @@
         <v>579700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>194300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43398,6 +43398,41 @@
         <v>194300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>119200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43433,6 +43433,76 @@
         <v>119200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>185600</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>660400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43503,6 +43503,76 @@
         <v>660400</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>361000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>355400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43573,6 +43573,41 @@
         <v>355400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>371700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43608,6 +43608,41 @@
         <v>371700</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>596500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43643,6 +43643,41 @@
         <v>596500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>211000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43678,6 +43678,41 @@
         <v>211000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>807900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43713,6 +43713,76 @@
         <v>807900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>262600</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>379400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43783,6 +43783,41 @@
         <v>379400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>463200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43818,6 +43818,41 @@
         <v>463200</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>743600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89493,6 +89493,41 @@
         <v>743600</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>768200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89528,6 +89528,41 @@
         <v>768200</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>725000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2547"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89563,6 +89563,41 @@
         <v>725000</v>
       </c>
     </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>585900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89598,6 +89598,41 @@
         <v>585900</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I2549" t="n">
+        <v>1134000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2549"/>
+  <dimension ref="A1:I2550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89633,6 +89633,41 @@
         <v>1134000</v>
       </c>
     </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>215800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2550"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89668,6 +89668,41 @@
         <v>215800</v>
       </c>
     </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2551" t="n">
+        <v>211600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89703,6 +89703,41 @@
         <v>211600</v>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2552" t="n">
+        <v>325800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89738,6 +89738,41 @@
         <v>325800</v>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2553" t="n">
+        <v>447800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2553"/>
+  <dimension ref="A1:I2554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89773,6 +89773,41 @@
         <v>447800</v>
       </c>
     </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2554" t="n">
+        <v>109500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2554"/>
+  <dimension ref="A1:I2555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89808,6 +89808,41 @@
         <v>109500</v>
       </c>
     </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2555" t="n">
+        <v>610700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2555"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89843,6 +89843,41 @@
         <v>610700</v>
       </c>
     </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2556" t="n">
+        <v>201000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2556"/>
+  <dimension ref="A1:I2557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89878,6 +89878,41 @@
         <v>201000</v>
       </c>
     </row>
+    <row r="2557">
+      <c r="A2557" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2557" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2557" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2557" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2557" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2557" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2557" t="n">
+        <v>141000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2557"/>
+  <dimension ref="A1:I2558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89913,6 +89913,41 @@
         <v>141000</v>
       </c>
     </row>
+    <row r="2558">
+      <c r="A2558" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2558" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2558" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2558" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2558" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2558" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2558" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="I2558" t="n">
+        <v>642000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2558"/>
+  <dimension ref="A1:I2559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89948,6 +89948,41 @@
         <v>642000</v>
       </c>
     </row>
+    <row r="2559">
+      <c r="A2559" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2559" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2559" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2559" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F2559" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2559" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2559" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2559" t="n">
+        <v>177200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0008.xlsx
+++ b/data/0008.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2559"/>
+  <dimension ref="A1:I2560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89983,6 +89983,41 @@
         <v>177200</v>
       </c>
     </row>
+    <row r="2560">
+      <c r="A2560" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2560" t="inlineStr">
+        <is>
+          <t>0008</t>
+        </is>
+      </c>
+      <c r="D2560" t="inlineStr">
+        <is>
+          <t>WILLOW</t>
+        </is>
+      </c>
+      <c r="E2560" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2560" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2560" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2560" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2560" t="n">
+        <v>100200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
